--- a/etalon.xlsx
+++ b/etalon.xlsx
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="310" uniqueCount="37">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="310" uniqueCount="40">
   <si>
     <t>File name</t>
   </si>
@@ -113,7 +113,16 @@
     <t>right_only</t>
   </si>
   <si>
-    <t>45.00</t>
+    <t>Col 1</t>
+  </si>
+  <si>
+    <t>Col 2</t>
+  </si>
+  <si>
+    <t>Col 3</t>
+  </si>
+  <si>
+    <t>Col 4</t>
   </si>
   <si>
     <t>no_headers.csv</t>
@@ -574,21 +583,21 @@
         <v>2</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
     </row>
     <row r="2" spans="1:7">
       <c r="A2" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="B2">
         <v>7</v>
@@ -597,7 +606,7 @@
         <v>4</v>
       </c>
       <c r="D2" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="E2" t="s">
         <v>14</v>
@@ -796,7 +805,7 @@
     </row>
     <row r="2" spans="1:7">
       <c r="A2" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="B2">
         <v>9</v>
@@ -1504,21 +1513,21 @@
         <v>2</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>17</v>
+        <v>27</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>19</v>
+        <v>28</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>22</v>
+        <v>30</v>
       </c>
     </row>
     <row r="2" spans="1:7">
       <c r="A2" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="B2">
         <v>6</v>
@@ -1527,7 +1536,7 @@
         <v>4</v>
       </c>
       <c r="D2" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="E2" t="s">
         <v>14</v>
@@ -1726,7 +1735,7 @@
     </row>
     <row r="2" spans="1:7">
       <c r="A2" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="B2">
         <v>7</v>
